--- a/WorkCheckSystem/WorkSystemForm.xlsx
+++ b/WorkCheckSystem/WorkSystemForm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="WorkForm" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="2018.04" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -133,11 +133,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
+      <rPr/>
       <t>経路①</t>
     </r>
     <r>
@@ -615,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="77">
     <border/>
     <border>
       <left style="double">
@@ -853,6 +849,15 @@
       <right style="double">
         <color rgb="FF000000"/>
       </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
       <top style="double">
         <color rgb="FF000000"/>
       </top>
@@ -925,9 +930,20 @@
       </bottom>
     </border>
     <border>
+      <left/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
     </border>
     <border>
       <right style="thin">
@@ -936,6 +952,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -944,11 +961,15 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
       <right style="double">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
     </border>
     <border>
       <left style="double">
@@ -959,6 +980,22 @@
       </top>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1072,12 +1109,58 @@
       </top>
     </border>
     <border>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1114,6 +1197,8 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1130,6 +1215,16 @@
       </bottom>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF000000"/>
       </left>
@@ -1152,6 +1247,15 @@
       </bottom>
     </border>
     <border>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF000000"/>
       </left>
@@ -1169,6 +1273,24 @@
       <left style="double">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
       <right style="double">
         <color rgb="FF000000"/>
       </right>
@@ -1178,6 +1300,11 @@
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <bottom style="double">
@@ -1269,12 +1396,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="160">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1295,7 +1422,7 @@
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1320,8 +1447,8 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="14" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1350,7 +1477,7 @@
     <xf borderId="14" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1362,53 +1489,57 @@
     <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="27" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="3" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="29" fillId="3" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="30" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="32" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="35" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="38" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="39" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="14" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1418,11 +1549,11 @@
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1433,37 +1564,37 @@
     <xf borderId="14" fillId="0" fontId="5" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="41" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="41" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="41" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="5" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="41" fillId="0" fontId="5" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="43" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="45" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="47" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="43" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1472,43 +1603,44 @@
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="30" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="44" fillId="0" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="48" fillId="0" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="11" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="26" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="11" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="11" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="0" fontId="11" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="3" fontId="11" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="11" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="5" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="25" fillId="3" fontId="5" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="45" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="25" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="22" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="46" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="50" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="51" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="52" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="53" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="54" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="23" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1517,121 +1649,131 @@
     <xf borderId="24" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="55" fillId="0" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="48" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="56" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="50" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="29" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="45" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="55" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="27" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="0" fontId="11" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="50" fillId="3" fontId="11" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="28" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="52" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="57" fillId="0" fontId="11" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="56" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="47" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="11" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="45" fillId="3" fontId="11" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="49" fillId="0" fontId="11" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="26" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="25" fillId="3" fontId="11" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="27" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="11" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="11" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="58" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="50" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="51" fillId="0" fontId="11" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
+    <xf borderId="27" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="59" fillId="0" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="60" fillId="0" fontId="11" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="19" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="51" fillId="3" fontId="11" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="51" fillId="3" fontId="11" numFmtId="171" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="51" fillId="3" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="1" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="61" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="60" fillId="3" fontId="11" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="60" fillId="3" fontId="11" numFmtId="171" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="60" fillId="3" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="52" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="62" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="60" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="1" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="62" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="52" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="51" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="20" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="53" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="63" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="64" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="65" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="66" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="66" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="66" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="50" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="59" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="54" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="67" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="55" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="68" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1640,41 +1782,41 @@
     <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="66" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="49" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="57" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="56" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="69" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="39" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="57" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="70" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="58" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="71" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="72" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="73" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="59" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="67" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="68" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="59" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="60" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="50" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="54" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="55" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="61" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="62" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="63" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="74" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="75" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="76" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1694,9 +1836,9 @@
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="5.43"/>
     <col customWidth="1" min="3" max="3" width="35.43"/>
@@ -1905,7 +2047,7 @@
         <v>12</v>
       </c>
       <c r="U5" s="42" t="str">
-        <f>VLOOKUP(C9,$X$13:$Y$1048576,2,0)</f>
+        <f>VLOOKUP(C9,$X$13:$Y$1047676,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V5" s="5"/>
@@ -1973,17 +2115,17 @@
       <c r="K7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="52">
+      <c r="L7" s="52"/>
+      <c r="M7" s="53">
         <f>(SUM(U13:U43))*24</f>
         <v>0</v>
       </c>
-      <c r="N7" s="48"/>
-      <c r="O7" s="53">
+      <c r="N7" s="52"/>
+      <c r="O7" s="54">
         <f>(SUM(U13:U27))*24</f>
         <v>0</v>
       </c>
-      <c r="P7" s="54">
+      <c r="P7" s="55">
         <f>SUM(U28:U43)*24</f>
         <v>0</v>
       </c>
@@ -2004,41 +2146,41 @@
         <v>17</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="33"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="23"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="57" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="56">
+      <c r="H8" s="58">
         <f>SUM(J5:J7)</f>
         <v>0</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="57" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="9"/>
-      <c r="M8" s="56">
+      <c r="M8" s="58">
         <f>SUM(H8:J10)</f>
         <v>0</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="57"/>
+      <c r="P8" s="59"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="58" t="s">
+      <c r="S8" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="58">
+      <c r="T8" s="60">
         <f>MONTH(C3)</f>
         <v>12</v>
       </c>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58" t="s">
+      <c r="U8" s="60"/>
+      <c r="V8" s="60" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="5"/>
@@ -2052,36 +2194,36 @@
         <v>22</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="59"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="23"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="62" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="61">
+      <c r="H9" s="63">
         <f>SUM(L13:L43)</f>
         <v>0</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="62" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="21"/>
-      <c r="M9" s="62">
+      <c r="M9" s="64">
         <f>SUM(SUMIFS($L$13:$L$43,$I$13:$I$43,"○"),SUMIFS($P$13:$P$43,$M$13:$M$43,"○"),SUM(J5:J7))</f>
         <v>0</v>
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="21"/>
-      <c r="P9" s="63"/>
+      <c r="P9" s="65"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58" t="s">
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60" t="s">
         <v>25</v>
       </c>
       <c r="W9" s="5"/>
@@ -2091,44 +2233,44 @@
       <c r="AA9" s="5"/>
     </row>
     <row r="10" ht="36.0" customHeight="1">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="64" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="68">
+      <c r="G10" s="67"/>
+      <c r="H10" s="70">
         <f>SUM(P13:P43)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="64" t="s">
+      <c r="I10" s="69"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="65"/>
-      <c r="M10" s="69">
+      <c r="L10" s="67"/>
+      <c r="M10" s="71">
         <f>M8-M9</f>
         <v>0</v>
       </c>
-      <c r="N10" s="67"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="63"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="65"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="58" t="s">
+      <c r="S10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="T10" s="58">
+      <c r="T10" s="60">
         <f>YEAR(C3)</f>
         <v>1899</v>
       </c>
-      <c r="U10" s="58" t="s">
+      <c r="U10" s="60" t="s">
         <v>30</v>
       </c>
       <c r="V10" s="5"/>
@@ -2168,60 +2310,60 @@
       <c r="AA11" s="5"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="71" t="s">
+      <c r="D12" s="75"/>
+      <c r="E12" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="75" t="s">
+      <c r="I12" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="73"/>
-      <c r="L12" s="76" t="s">
+      <c r="K12" s="75"/>
+      <c r="L12" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="75" t="s">
+      <c r="M12" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="76" t="s">
+      <c r="N12" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="73"/>
-      <c r="P12" s="77" t="s">
+      <c r="O12" s="75"/>
+      <c r="P12" s="79" t="s">
         <v>40</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="58" t="s">
+      <c r="S12" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="78">
-        <v>0.33333333333333</v>
-      </c>
-      <c r="U12" s="78">
-        <v>0.91666666666667</v>
-      </c>
-      <c r="V12" s="58"/>
+      <c r="T12" s="80">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="U12" s="80">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="V12" s="60"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -2229,48 +2371,48 @@
       <c r="AA12" s="5"/>
     </row>
     <row r="13" ht="45.0" customHeight="1">
-      <c r="A13" s="79" t="str">
+      <c r="A13" s="81" t="str">
         <f>C3</f>
         <v/>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85" t="str">
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88" t="str">
         <f t="shared" ref="H13:H42" si="1">IF(E13="","",MAX(0,IFERROR(S13-$T$12,"")))</f>
         <v/>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="78">
+      <c r="S13" s="80">
         <f t="shared" ref="S13:S43" si="2">F13-E13-G13</f>
         <v>0</v>
       </c>
-      <c r="T13" s="93">
+      <c r="T13" s="96">
         <v>1.0</v>
       </c>
-      <c r="U13" s="78">
+      <c r="U13" s="80">
         <f t="shared" ref="U13:U43" si="3">IF(F13&lt;$U$12,0,F13-$U$12)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="78">
+      <c r="V13" s="80">
         <f t="shared" ref="V13:V43" si="4">IFERROR(S13-H13,"")</f>
         <v>0</v>
       </c>
-      <c r="W13" s="58"/>
+      <c r="W13" s="60"/>
       <c r="X13" t="s">
         <v>44</v>
       </c>
@@ -2281,48 +2423,48 @@
       <c r="AA13" s="5"/>
     </row>
     <row r="14" ht="45.0" customHeight="1">
-      <c r="A14" s="94">
-        <f t="shared" ref="A14:A40" si="5">A13+1</f>
+      <c r="A14" s="97">
+        <f t="shared" ref="A14:A42" si="5">A13+1</f>
         <v>1</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85" t="str">
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="98"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="101"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="78">
+      <c r="S14" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="93">
+      <c r="T14" s="96">
         <v>2.0</v>
       </c>
-      <c r="U14" s="78">
+      <c r="U14" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V14" s="78">
+      <c r="V14" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W14" s="78"/>
+      <c r="W14" s="80"/>
       <c r="X14" t="s">
         <v>45</v>
       </c>
@@ -2333,48 +2475,48 @@
       <c r="AA14" s="5"/>
     </row>
     <row r="15" ht="45.0" customHeight="1">
-      <c r="A15" s="94">
+      <c r="A15" s="97">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85" t="str">
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I15" s="86"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="98"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="101"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="78">
+      <c r="S15" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T15" s="93">
+      <c r="T15" s="96">
         <v>3.0</v>
       </c>
-      <c r="U15" s="78">
+      <c r="U15" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V15" s="78">
+      <c r="V15" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W15" s="58"/>
+      <c r="W15" s="60"/>
       <c r="X15" t="s">
         <v>47</v>
       </c>
@@ -2385,48 +2527,48 @@
       <c r="AA15" s="5"/>
     </row>
     <row r="16" ht="45.0" customHeight="1">
-      <c r="A16" s="94">
+      <c r="A16" s="97">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85" t="str">
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I16" s="101"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="98"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="78">
+      <c r="S16" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T16" s="93">
+      <c r="T16" s="96">
         <v>4.0</v>
       </c>
-      <c r="U16" s="78">
+      <c r="U16" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V16" s="78">
+      <c r="V16" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W16" s="58"/>
+      <c r="W16" s="60"/>
       <c r="X16" t="s">
         <v>49</v>
       </c>
@@ -2437,48 +2579,48 @@
       <c r="AA16" s="5"/>
     </row>
     <row r="17" ht="45.0" customHeight="1">
-      <c r="A17" s="94">
+      <c r="A17" s="97">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="85" t="str">
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I17" s="101"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="98"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="101"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="78">
+      <c r="S17" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T17" s="93">
+      <c r="T17" s="96">
         <v>5.0</v>
       </c>
-      <c r="U17" s="78">
+      <c r="U17" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V17" s="78">
+      <c r="V17" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W17" s="58"/>
+      <c r="W17" s="60"/>
       <c r="X17" t="s">
         <v>51</v>
       </c>
@@ -2489,48 +2631,48 @@
       <c r="AA17" s="5"/>
     </row>
     <row r="18" ht="45.0" customHeight="1">
-      <c r="A18" s="94">
+      <c r="A18" s="97">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="85" t="str">
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I18" s="86"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="98"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="101"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="78">
+      <c r="S18" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="93">
+      <c r="T18" s="96">
         <v>6.0</v>
       </c>
-      <c r="U18" s="78">
+      <c r="U18" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V18" s="78">
+      <c r="V18" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W18" s="58"/>
+      <c r="W18" s="60"/>
       <c r="X18" t="s">
         <v>53</v>
       </c>
@@ -2541,48 +2683,48 @@
       <c r="AA18" s="5"/>
     </row>
     <row r="19" ht="45.0" customHeight="1">
-      <c r="A19" s="94">
+      <c r="A19" s="97">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="85" t="str">
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I19" s="101"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="98"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="101"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="78">
+      <c r="S19" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T19" s="93">
+      <c r="T19" s="96">
         <v>7.0</v>
       </c>
-      <c r="U19" s="78">
+      <c r="U19" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V19" s="78">
+      <c r="V19" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W19" s="58"/>
+      <c r="W19" s="60"/>
       <c r="X19" t="s">
         <v>55</v>
       </c>
@@ -2593,48 +2735,48 @@
       <c r="AA19" s="5"/>
     </row>
     <row r="20" ht="45.0" customHeight="1">
-      <c r="A20" s="94">
+      <c r="A20" s="97">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="85" t="str">
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I20" s="101"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="98"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="101"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="78">
+      <c r="S20" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T20" s="93">
+      <c r="T20" s="96">
         <v>8.0</v>
       </c>
-      <c r="U20" s="78">
+      <c r="U20" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V20" s="78">
+      <c r="V20" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W20" s="58"/>
+      <c r="W20" s="60"/>
       <c r="X20" t="s">
         <v>56</v>
       </c>
@@ -2645,48 +2787,48 @@
       <c r="AA20" s="5"/>
     </row>
     <row r="21" ht="45.0" customHeight="1">
-      <c r="A21" s="94">
+      <c r="A21" s="97">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="103"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="38"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="85" t="str">
+      <c r="E21" s="109"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I21" s="86"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="98"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="101"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="78">
+      <c r="S21" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T21" s="93">
+      <c r="T21" s="96">
         <v>9.0</v>
       </c>
-      <c r="U21" s="78">
+      <c r="U21" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V21" s="78">
+      <c r="V21" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W21" s="58"/>
+      <c r="W21" s="60"/>
       <c r="X21" t="s">
         <v>57</v>
       </c>
@@ -2697,48 +2839,48 @@
       <c r="AA21" s="5"/>
     </row>
     <row r="22" ht="45.0" customHeight="1">
-      <c r="A22" s="94">
+      <c r="A22" s="97">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="85" t="str">
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I22" s="86"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="98"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="101"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="78">
+      <c r="S22" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T22" s="93">
+      <c r="T22" s="96">
         <v>10.0</v>
       </c>
-      <c r="U22" s="78">
+      <c r="U22" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V22" s="78">
+      <c r="V22" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W22" s="58"/>
+      <c r="W22" s="60"/>
       <c r="X22" t="s">
         <v>58</v>
       </c>
@@ -2749,48 +2891,48 @@
       <c r="AA22" s="5"/>
     </row>
     <row r="23" ht="45.0" customHeight="1">
-      <c r="A23" s="94">
+      <c r="A23" s="97">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="38"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85" t="str">
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I23" s="86"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="98"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="101"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="78">
+      <c r="S23" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T23" s="93">
+      <c r="T23" s="96">
         <v>11.0</v>
       </c>
-      <c r="U23" s="78">
+      <c r="U23" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V23" s="78">
+      <c r="V23" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W23" s="58"/>
+      <c r="W23" s="60"/>
       <c r="X23" t="s">
         <v>59</v>
       </c>
@@ -2801,48 +2943,48 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24" ht="45.0" customHeight="1">
-      <c r="A24" s="94">
+      <c r="A24" s="97">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="103"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85" t="str">
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I24" s="86"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="98"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="78">
+      <c r="S24" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T24" s="93">
+      <c r="T24" s="96">
         <v>12.0</v>
       </c>
-      <c r="U24" s="78">
+      <c r="U24" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V24" s="78">
+      <c r="V24" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W24" s="58"/>
+      <c r="W24" s="60"/>
       <c r="X24" t="s">
         <v>60</v>
       </c>
@@ -2853,48 +2995,48 @@
       <c r="AA24" s="5"/>
     </row>
     <row r="25" ht="45.0" customHeight="1">
-      <c r="A25" s="94">
+      <c r="A25" s="97">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="103"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="38"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85" t="str">
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I25" s="86"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="98"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="101"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="78">
+      <c r="S25" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T25" s="93">
+      <c r="T25" s="96">
         <v>13.0</v>
       </c>
-      <c r="U25" s="78">
+      <c r="U25" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V25" s="78">
+      <c r="V25" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W25" s="58"/>
+      <c r="W25" s="60"/>
       <c r="X25" t="s">
         <v>61</v>
       </c>
@@ -2905,48 +3047,48 @@
       <c r="AA25" s="5"/>
     </row>
     <row r="26" ht="45.0" customHeight="1">
-      <c r="A26" s="94">
+      <c r="A26" s="97">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="85" t="str">
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I26" s="101"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="98"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="101"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="78">
+      <c r="S26" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T26" s="93">
+      <c r="T26" s="96">
         <v>14.0</v>
       </c>
-      <c r="U26" s="78">
+      <c r="U26" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V26" s="78">
+      <c r="V26" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W26" s="58"/>
+      <c r="W26" s="60"/>
       <c r="X26" t="s">
         <v>62</v>
       </c>
@@ -2957,48 +3099,48 @@
       <c r="AA26" s="5"/>
     </row>
     <row r="27" ht="45.0" customHeight="1">
-      <c r="A27" s="94">
+      <c r="A27" s="97">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="85" t="str">
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I27" s="86"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="98"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="101"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="78">
+      <c r="S27" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T27" s="93">
-        <v>15.0</v>
-      </c>
-      <c r="U27" s="78">
+      <c r="T27" s="96">
+        <v>15.0</v>
+      </c>
+      <c r="U27" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V27" s="78">
+      <c r="V27" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W27" s="58"/>
+      <c r="W27" s="60"/>
       <c r="X27" t="s">
         <v>63</v>
       </c>
@@ -3009,48 +3151,48 @@
       <c r="AA27" s="5"/>
     </row>
     <row r="28" ht="45.0" customHeight="1">
-      <c r="A28" s="94">
+      <c r="A28" s="97">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="85" t="str">
+      <c r="C28" s="108"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I28" s="86"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="98"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="101"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="78">
+      <c r="S28" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T28" s="93">
+      <c r="T28" s="96">
         <v>16.0</v>
       </c>
-      <c r="U28" s="78">
+      <c r="U28" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V28" s="78">
+      <c r="V28" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W28" s="58"/>
+      <c r="W28" s="60"/>
       <c r="X28" t="s">
         <v>64</v>
       </c>
@@ -3061,48 +3203,48 @@
       <c r="AA28" s="5"/>
     </row>
     <row r="29" ht="45.0" customHeight="1">
-      <c r="A29" s="94">
+      <c r="A29" s="97">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85" t="str">
+      <c r="C29" s="108"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I29" s="86"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="98"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="101"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="78">
+      <c r="S29" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T29" s="93">
+      <c r="T29" s="96">
         <v>17.0</v>
       </c>
-      <c r="U29" s="78">
+      <c r="U29" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V29" s="78">
+      <c r="V29" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W29" s="58"/>
+      <c r="W29" s="60"/>
       <c r="X29" t="s">
         <v>65</v>
       </c>
@@ -3113,48 +3255,48 @@
       <c r="AA29" s="5"/>
     </row>
     <row r="30" ht="45.0" customHeight="1">
-      <c r="A30" s="94">
+      <c r="A30" s="97">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85" t="str">
+      <c r="C30" s="108"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I30" s="86"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="98"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="101"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="78">
+      <c r="S30" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T30" s="93">
+      <c r="T30" s="96">
         <v>18.0</v>
       </c>
-      <c r="U30" s="78">
+      <c r="U30" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V30" s="78">
+      <c r="V30" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W30" s="58"/>
+      <c r="W30" s="60"/>
       <c r="X30" t="s">
         <v>66</v>
       </c>
@@ -3165,48 +3307,48 @@
       <c r="AA30" s="5"/>
     </row>
     <row r="31" ht="45.0" customHeight="1">
-      <c r="A31" s="94">
+      <c r="A31" s="97">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="85" t="str">
+      <c r="C31" s="108"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I31" s="86"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="98"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="101"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="78">
+      <c r="S31" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T31" s="93">
+      <c r="T31" s="96">
         <v>19.0</v>
       </c>
-      <c r="U31" s="78">
+      <c r="U31" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V31" s="78">
+      <c r="V31" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W31" s="58"/>
+      <c r="W31" s="60"/>
       <c r="X31" t="s">
         <v>67</v>
       </c>
@@ -3217,48 +3359,48 @@
       <c r="AA31" s="5"/>
     </row>
     <row r="32" ht="45.0" customHeight="1">
-      <c r="A32" s="94">
+      <c r="A32" s="97">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="85" t="str">
+      <c r="C32" s="108"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I32" s="86"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="98"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="101"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="78">
+      <c r="S32" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T32" s="93">
+      <c r="T32" s="96">
         <v>20.0</v>
       </c>
-      <c r="U32" s="78">
+      <c r="U32" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V32" s="78">
+      <c r="V32" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W32" s="58"/>
+      <c r="W32" s="60"/>
       <c r="X32" t="s">
         <v>68</v>
       </c>
@@ -3269,48 +3411,48 @@
       <c r="AA32" s="5"/>
     </row>
     <row r="33" ht="45.0" customHeight="1">
-      <c r="A33" s="94">
+      <c r="A33" s="97">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="85" t="str">
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I33" s="101"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="106"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="112"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="78">
+      <c r="S33" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T33" s="93">
+      <c r="T33" s="96">
         <v>21.0</v>
       </c>
-      <c r="U33" s="78">
+      <c r="U33" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V33" s="78">
+      <c r="V33" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W33" s="58"/>
+      <c r="W33" s="60"/>
       <c r="X33" t="s">
         <v>69</v>
       </c>
@@ -3321,48 +3463,48 @@
       <c r="AA33" s="5"/>
     </row>
     <row r="34" ht="45.0" customHeight="1">
-      <c r="A34" s="94">
+      <c r="A34" s="97">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="85" t="str">
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I34" s="86"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="106"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="112"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="78">
+      <c r="S34" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T34" s="93">
+      <c r="T34" s="96">
         <v>22.0</v>
       </c>
-      <c r="U34" s="78">
+      <c r="U34" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V34" s="78">
+      <c r="V34" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W34" s="58"/>
+      <c r="W34" s="60"/>
       <c r="X34" t="s">
         <v>70</v>
       </c>
@@ -3373,48 +3515,48 @@
       <c r="AA34" s="5"/>
     </row>
     <row r="35" ht="45.0" customHeight="1">
-      <c r="A35" s="94">
+      <c r="A35" s="97">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="85" t="str">
+      <c r="C35" s="108"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I35" s="86"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="106"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="102"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="112"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="78">
+      <c r="S35" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T35" s="93">
+      <c r="T35" s="96">
         <v>23.0</v>
       </c>
-      <c r="U35" s="78">
+      <c r="U35" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V35" s="78">
+      <c r="V35" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W35" s="58"/>
+      <c r="W35" s="60"/>
       <c r="X35" t="s">
         <v>71</v>
       </c>
@@ -3425,48 +3567,48 @@
       <c r="AA35" s="5"/>
     </row>
     <row r="36" ht="45.0" customHeight="1">
-      <c r="A36" s="94">
+      <c r="A36" s="97">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="85" t="str">
+      <c r="C36" s="108"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I36" s="86"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="106"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="112"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="78">
+      <c r="S36" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T36" s="93">
+      <c r="T36" s="96">
         <v>24.0</v>
       </c>
-      <c r="U36" s="78">
+      <c r="U36" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V36" s="78">
+      <c r="V36" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W36" s="58"/>
+      <c r="W36" s="60"/>
       <c r="X36" t="s">
         <v>72</v>
       </c>
@@ -3477,48 +3619,48 @@
       <c r="AA36" s="5"/>
     </row>
     <row r="37" ht="45.0" customHeight="1">
-      <c r="A37" s="94">
+      <c r="A37" s="97">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B37" s="100" t="s">
+      <c r="B37" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="85" t="str">
+      <c r="C37" s="108"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I37" s="101"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="106"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="112"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="78">
+      <c r="S37" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T37" s="93">
+      <c r="T37" s="96">
         <v>25.0</v>
       </c>
-      <c r="U37" s="78">
+      <c r="U37" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V37" s="78">
+      <c r="V37" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W37" s="58"/>
+      <c r="W37" s="60"/>
       <c r="X37" t="s">
         <v>73</v>
       </c>
@@ -3529,48 +3671,48 @@
       <c r="AA37" s="5"/>
     </row>
     <row r="38" ht="45.0" customHeight="1">
-      <c r="A38" s="94">
+      <c r="A38" s="97">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85" t="str">
+      <c r="C38" s="108"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I38" s="86"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="99"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="106"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="112"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="78">
+      <c r="S38" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T38" s="93">
+      <c r="T38" s="96">
         <v>26.0</v>
       </c>
-      <c r="U38" s="78">
+      <c r="U38" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V38" s="78">
+      <c r="V38" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W38" s="58"/>
+      <c r="W38" s="60"/>
       <c r="X38" t="s">
         <v>74</v>
       </c>
@@ -3581,48 +3723,48 @@
       <c r="AA38" s="5"/>
     </row>
     <row r="39" ht="45.0" customHeight="1">
-      <c r="A39" s="94">
+      <c r="A39" s="97">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="85" t="str">
+      <c r="C39" s="108"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I39" s="86"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="106"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="112"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="78">
+      <c r="S39" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T39" s="93">
+      <c r="T39" s="96">
         <v>27.0</v>
       </c>
-      <c r="U39" s="78">
+      <c r="U39" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V39" s="78">
+      <c r="V39" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W39" s="58"/>
+      <c r="W39" s="60"/>
       <c r="X39" t="s">
         <v>75</v>
       </c>
@@ -3633,48 +3775,48 @@
       <c r="AA39" s="5"/>
     </row>
     <row r="40" ht="45.0" customHeight="1">
-      <c r="A40" s="94">
+      <c r="A40" s="97">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B40" s="102" t="s">
+      <c r="B40" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="103"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="38"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="85" t="str">
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I40" s="101"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="97"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="98"/>
-      <c r="Q40" s="106"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="112"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="78">
+      <c r="S40" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T40" s="93">
+      <c r="T40" s="96">
         <v>28.0</v>
       </c>
-      <c r="U40" s="78">
+      <c r="U40" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V40" s="78">
+      <c r="V40" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W40" s="58"/>
+      <c r="W40" s="60"/>
       <c r="X40" t="s">
         <v>76</v>
       </c>
@@ -3685,47 +3827,48 @@
       <c r="AA40" s="5"/>
     </row>
     <row r="41" ht="45.0" customHeight="1">
-      <c r="A41" s="107">
-        <v>29.0</v>
-      </c>
-      <c r="B41" s="80" t="s">
+      <c r="A41" s="97">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="B41" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="103"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="85" t="str">
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I41" s="86"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="99"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="98"/>
-      <c r="Q41" s="106"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="102"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="112"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="78">
+      <c r="S41" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T41" s="93">
+      <c r="T41" s="96">
         <v>29.0</v>
       </c>
-      <c r="U41" s="78">
+      <c r="U41" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V41" s="78">
+      <c r="V41" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W41" s="58"/>
+      <c r="W41" s="60"/>
       <c r="X41" t="s">
         <v>77</v>
       </c>
@@ -3736,47 +3879,48 @@
       <c r="AA41" s="5"/>
     </row>
     <row r="42" ht="45.0" customHeight="1">
-      <c r="A42" s="107">
-        <v>30.0</v>
-      </c>
-      <c r="B42" s="80" t="s">
+      <c r="A42" s="97">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="B42" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="108"/>
       <c r="D42" s="38"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="85" t="str">
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I42" s="86"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="98"/>
-      <c r="Q42" s="106"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="102"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="101"/>
+      <c r="Q42" s="112"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="78">
+      <c r="S42" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T42" s="93">
+      <c r="T42" s="96">
         <v>30.0</v>
       </c>
-      <c r="U42" s="78">
+      <c r="U42" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V42" s="78">
+      <c r="V42" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W42" s="58"/>
+      <c r="W42" s="60"/>
       <c r="X42" t="s">
         <v>78</v>
       </c>
@@ -3787,40 +3931,43 @@
       <c r="AA42" s="5"/>
     </row>
     <row r="43" ht="45.0" customHeight="1">
-      <c r="A43" s="108"/>
-      <c r="B43" s="109"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="106"/>
+      <c r="A43" s="114">
+        <f>A42+1</f>
+        <v>30</v>
+      </c>
+      <c r="B43" s="115"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="124"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="123"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="112"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="78">
+      <c r="S43" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T43" s="93">
+      <c r="T43" s="96">
         <v>31.0</v>
       </c>
-      <c r="U43" s="78">
+      <c r="U43" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V43" s="78">
+      <c r="V43" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W43" s="58"/>
+      <c r="W43" s="60"/>
       <c r="X43" t="s">
         <v>79</v>
       </c>
@@ -3831,29 +3978,29 @@
       <c r="AA43" s="5"/>
     </row>
     <row r="44" ht="7.5" customHeight="1">
-      <c r="A44" s="106"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106"/>
-      <c r="N44" s="106"/>
-      <c r="O44" s="106"/>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="106"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="112"/>
+      <c r="L44" s="112"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="112"/>
+      <c r="O44" s="112"/>
+      <c r="P44" s="112"/>
+      <c r="Q44" s="112"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="78"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="58"/>
-      <c r="V44" s="78"/>
-      <c r="W44" s="58"/>
+      <c r="S44" s="80"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="60"/>
+      <c r="V44" s="80"/>
+      <c r="W44" s="60"/>
       <c r="X44" t="s">
         <v>80</v>
       </c>
@@ -3864,39 +4011,39 @@
       <c r="AA44" s="5"/>
     </row>
     <row r="45" ht="23.25" customHeight="1">
-      <c r="A45" s="119" t="s">
+      <c r="A45" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="120"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="120"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="120"/>
-      <c r="N45" s="120"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="121" t="s">
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
+      <c r="L45" s="127"/>
+      <c r="M45" s="127"/>
+      <c r="N45" s="127"/>
+      <c r="O45" s="127"/>
+      <c r="P45" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="Q45" s="106"/>
+      <c r="Q45" s="112"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58" t="s">
+      <c r="S45" s="60"/>
+      <c r="T45" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="U45" s="58" t="s">
+      <c r="U45" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="V45" s="58" t="s">
+      <c r="V45" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="W45" s="58"/>
+      <c r="W45" s="60"/>
       <c r="X45" t="s">
         <v>84</v>
       </c>
@@ -3907,23 +4054,23 @@
       <c r="AA45" s="5"/>
     </row>
     <row r="46" ht="23.25" customHeight="1">
-      <c r="A46" s="122"/>
-      <c r="B46" s="123"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="123"/>
-      <c r="J46" s="123"/>
-      <c r="K46" s="123"/>
-      <c r="L46" s="123"/>
-      <c r="M46" s="123"/>
-      <c r="N46" s="123"/>
-      <c r="O46" s="124"/>
-      <c r="P46" s="125"/>
-      <c r="Q46" s="106"/>
+      <c r="A46" s="129"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="130"/>
+      <c r="N46" s="130"/>
+      <c r="O46" s="131"/>
+      <c r="P46" s="132"/>
+      <c r="Q46" s="112"/>
       <c r="R46" s="4"/>
       <c r="S46" s="5" t="s">
         <v>85</v>
@@ -3942,7 +4089,7 @@
       <c r="AA46" s="5"/>
     </row>
     <row r="47" ht="23.25" customHeight="1">
-      <c r="A47" s="126"/>
+      <c r="A47" s="133"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3956,9 +4103,9 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
-      <c r="O47" s="127"/>
-      <c r="P47" s="128"/>
-      <c r="Q47" s="106"/>
+      <c r="O47" s="134"/>
+      <c r="P47" s="135"/>
+      <c r="Q47" s="112"/>
       <c r="R47" s="4"/>
       <c r="S47" s="5" t="s">
         <v>87</v>
@@ -3977,23 +4124,23 @@
       <c r="AA47" s="5"/>
     </row>
     <row r="48" ht="23.25" customHeight="1">
-      <c r="A48" s="129"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="131"/>
-      <c r="P48" s="131"/>
-      <c r="Q48" s="106"/>
+      <c r="A48" s="136"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+      <c r="J48" s="137"/>
+      <c r="K48" s="137"/>
+      <c r="L48" s="137"/>
+      <c r="M48" s="137"/>
+      <c r="N48" s="137"/>
+      <c r="O48" s="138"/>
+      <c r="P48" s="138"/>
+      <c r="Q48" s="112"/>
       <c r="R48" s="4"/>
       <c r="S48" s="5" t="s">
         <v>89</v>
@@ -4012,7 +4159,7 @@
       <c r="AA48" s="5"/>
     </row>
     <row r="49" ht="30.75" customHeight="1">
-      <c r="A49" s="132" t="s">
+      <c r="A49" s="139" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="2"/>
@@ -4025,14 +4172,14 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="133" t="s">
+      <c r="L49" s="140" t="s">
         <v>92</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="3"/>
-      <c r="Q49" s="106"/>
+      <c r="Q49" s="112"/>
       <c r="R49" s="4"/>
       <c r="S49" s="5" t="s">
         <v>93</v>
@@ -4051,24 +4198,24 @@
       <c r="AA49" s="5"/>
     </row>
     <row r="50" ht="19.5" customHeight="1">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="K50" s="135"/>
-      <c r="L50" s="136" t="s">
+      <c r="K50" s="142"/>
+      <c r="L50" s="143" t="s">
         <v>96</v>
       </c>
       <c r="M50" s="29"/>
-      <c r="N50" s="137" t="s">
+      <c r="N50" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="O50" s="137" t="s">
+      <c r="O50" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="P50" s="138" t="s">
+      <c r="P50" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="Q50" s="106"/>
+      <c r="Q50" s="112"/>
       <c r="R50" s="4"/>
       <c r="S50" s="5" t="s">
         <v>100</v>
@@ -4087,16 +4234,16 @@
       <c r="AA50" s="5"/>
     </row>
     <row r="51" ht="24.0" customHeight="1">
-      <c r="A51" s="134" t="s">
+      <c r="A51" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="K51" s="135"/>
-      <c r="L51" s="139"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="140"/>
-      <c r="O51" s="140"/>
-      <c r="P51" s="141"/>
-      <c r="Q51" s="106"/>
+      <c r="K51" s="142"/>
+      <c r="L51" s="146"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="147"/>
+      <c r="O51" s="147"/>
+      <c r="P51" s="148"/>
+      <c r="Q51" s="112"/>
       <c r="R51" s="4"/>
       <c r="S51" s="5" t="s">
         <v>103</v>
@@ -4115,16 +4262,16 @@
       <c r="AA51" s="5"/>
     </row>
     <row r="52" ht="24.0" customHeight="1">
-      <c r="A52" s="134" t="s">
+      <c r="A52" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="K52" s="135"/>
-      <c r="L52" s="142"/>
-      <c r="M52" s="143"/>
-      <c r="N52" s="144"/>
-      <c r="O52" s="144"/>
-      <c r="P52" s="145"/>
-      <c r="Q52" s="106"/>
+      <c r="K52" s="142"/>
+      <c r="L52" s="149"/>
+      <c r="M52" s="150"/>
+      <c r="N52" s="151"/>
+      <c r="O52" s="151"/>
+      <c r="P52" s="152"/>
+      <c r="Q52" s="112"/>
       <c r="R52" s="4"/>
       <c r="S52" s="5" t="s">
         <v>106</v>
@@ -4143,14 +4290,14 @@
       <c r="AA52" s="5"/>
     </row>
     <row r="53" ht="24.0" customHeight="1">
-      <c r="A53" s="134"/>
-      <c r="K53" s="135"/>
-      <c r="L53" s="142"/>
-      <c r="M53" s="143"/>
-      <c r="N53" s="144"/>
-      <c r="O53" s="144"/>
-      <c r="P53" s="145"/>
-      <c r="Q53" s="106"/>
+      <c r="A53" s="141"/>
+      <c r="K53" s="142"/>
+      <c r="L53" s="149"/>
+      <c r="M53" s="150"/>
+      <c r="N53" s="151"/>
+      <c r="O53" s="151"/>
+      <c r="P53" s="152"/>
+      <c r="Q53" s="112"/>
       <c r="R53" s="4"/>
       <c r="S53" s="5" t="s">
         <v>108</v>
@@ -4169,23 +4316,23 @@
       <c r="AA53" s="5"/>
     </row>
     <row r="54" ht="24.0" customHeight="1">
-      <c r="A54" s="146"/>
-      <c r="B54" s="147"/>
-      <c r="C54" s="147"/>
-      <c r="D54" s="147"/>
-      <c r="E54" s="147"/>
-      <c r="F54" s="147"/>
-      <c r="G54" s="147"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="147"/>
-      <c r="K54" s="148"/>
-      <c r="L54" s="149"/>
-      <c r="M54" s="150"/>
-      <c r="N54" s="151"/>
-      <c r="O54" s="151"/>
-      <c r="P54" s="152"/>
-      <c r="Q54" s="106"/>
+      <c r="A54" s="153"/>
+      <c r="B54" s="154"/>
+      <c r="C54" s="154"/>
+      <c r="D54" s="154"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="154"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="154"/>
+      <c r="K54" s="155"/>
+      <c r="L54" s="156"/>
+      <c r="M54" s="157"/>
+      <c r="N54" s="158"/>
+      <c r="O54" s="158"/>
+      <c r="P54" s="159"/>
+      <c r="Q54" s="112"/>
       <c r="R54" s="4"/>
       <c r="S54" s="5" t="s">
         <v>110</v>
@@ -5049,1024 +5196,712 @@
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="80" ht="19.5" customHeight="1">
+      <c r="A80" s="6"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+    </row>
+    <row r="81" ht="19.5" customHeight="1">
+      <c r="A81" s="6"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5"/>
+    </row>
+    <row r="82" ht="19.5" customHeight="1">
+      <c r="A82" s="6"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+    </row>
+    <row r="83" ht="19.5" customHeight="1">
+      <c r="A83" s="6"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+    </row>
+    <row r="84" ht="19.5" customHeight="1">
+      <c r="A84" s="6"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+    </row>
+    <row r="85" ht="19.5" customHeight="1">
+      <c r="A85" s="6"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+    </row>
+    <row r="86" ht="19.5" customHeight="1">
+      <c r="A86" s="6"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+    </row>
+    <row r="87" ht="19.5" customHeight="1">
+      <c r="A87" s="6"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+    </row>
+    <row r="88" ht="19.5" customHeight="1">
+      <c r="A88" s="6"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+    </row>
+    <row r="89" ht="19.5" customHeight="1">
+      <c r="A89" s="6"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+    </row>
+    <row r="90" ht="19.5" customHeight="1">
+      <c r="A90" s="6"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+    </row>
+    <row r="91" ht="19.5" customHeight="1">
+      <c r="A91" s="6"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+    </row>
+    <row r="92" ht="19.5" customHeight="1">
+      <c r="A92" s="6"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+    </row>
+    <row r="93" ht="19.5" customHeight="1">
+      <c r="A93" s="6"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+    </row>
+    <row r="94" ht="19.5" customHeight="1">
+      <c r="A94" s="6"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+    </row>
+    <row r="95" ht="19.5" customHeight="1">
+      <c r="A95" s="6"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+    </row>
+    <row r="96" ht="19.5" customHeight="1">
+      <c r="A96" s="6"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+    </row>
+    <row r="97" ht="19.5" customHeight="1">
+      <c r="A97" s="6"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+    </row>
+    <row r="98" ht="19.5" customHeight="1">
+      <c r="A98" s="6"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+    </row>
+    <row r="99" ht="19.5" customHeight="1">
+      <c r="A99" s="6"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+    </row>
+    <row r="100" ht="19.5" customHeight="1">
+      <c r="A100" s="6"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="O51:O54"/>
+    <mergeCell ref="P51:P54"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="L51:M54"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A54:K54"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="L50:M50"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="N51:N54"/>
-    <mergeCell ref="L51:M54"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="O51:O54"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="P51:P54"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C8">
@@ -6081,7 +5916,7 @@
   </dataValidations>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>